--- a/LIHKG/20230111/LIHKG_Fetch_Log.xlsx
+++ b/LIHKG/20230111/LIHKG_Fetch_Log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="213">
   <si>
     <t>Fetch UID (PK)</t>
   </si>
@@ -34,453 +34,429 @@
     <t>Thread Number of Page</t>
   </si>
   <si>
-    <t>LI-20230110-232042066087</t>
-  </si>
-  <si>
-    <t>LI-20230110-232907058447</t>
-  </si>
-  <si>
-    <t>LI-20230110-233246137217</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-瀧野由美仔-2023-1-5 22:38:13</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-格林斯潘-2023-1-5 22:19:37</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-只嫁紀律部隊-2023-1-5 14:48:32</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-3noirvexa老師-2023-1-5 12:27:48</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-王頌茵-2023-1-3 05:46:42</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-東升西降@呂布-2023-1-2 14:57:27</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-馬里蘭樂園田泰安-2022-12-29 20:08:21</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-能大SU主席-2022-12-23 16:21:01</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-須賀悠衣-2022-12-17 15:41:59</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-保衛警犬運動-2022-12-12 23:51:17</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-點點點-2022-12-12 15:07:01</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-GME散戶（暴發）-2022-12-9 09:37:13</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-茉莉花園-2022-12-8 22:55:23</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-一蓑煙雨-2022-12-8 22:23:41</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-習慣咗就冇事-2022-12-8 22:03:18</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-芝麻仁冇蘑菇-2022-12-8 18:40:32</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-笑聲笑聲冚家拎-2022-12-8 13:22:09</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-爆炸-2022-12-8 12:26:50</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-須賀悠衣-2022-12-8 11:25:28</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-蓋世寶掉老母-2022-12-8 08:57:59</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-有村架純bb豬-2022-12-8 08:32:58</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-想點姐你打我牙笨-2022-12-8 06:43:17</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-毒菇天下-2022-12-7 23:50:26</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-藍色幽默-2022-12-7 23:39:23</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-一蓑煙雨-2022-12-7 23:19:28</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-天狼星A-2022-12-7 23:11:55</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-鹿特丹斯巴光年-2022-12-7 22:47:10</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-蓋世寶掉老母-2022-12-7 22:41:24</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-有冇人打波-2022-12-7 21:51:32</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-唔好搞我喇-2022-12-7 21:02:32</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-夢見-2022-12-7 19:32:33</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-安社長-2022-12-7 17:23:34</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-有妖氣-2022-12-7 15:12:21</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-科興揸弗人-2022-12-7 14:52:32</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-拉馬師潘頓-2022-12-7 14:17:20</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-數據難民-2022-12-7 13:40:57</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-異國喬-2022-12-6 23:09:28</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-阿李蝦蝦-2022-12-6 22:22:40</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-milet老公仔-2022-12-6 19:05:35</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-BenC世一！！-2022-12-6 18:59:42</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-10676呂布(PTSD)-2022-12-5 20:14:00</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-漢語字庫-2022-12-4 12:47:53</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-武漢居民-2022-12-2 22:53:02</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-仁賤聖敢油麥菜-2022-12-2 19:54:56</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-是但啦個名-2022-12-2 00:56:31</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-巴黎魚-2022-11-24 09:13:03</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-滕禁肛-2022-11-21 21:27:58</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-小鳥篤魚旦-2022-11-17 16:39:25</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-瀟灑不J-2022-11-14 11:29:30</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-蓋世寶掉老母-2022-11-8 11:54:04</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-冷泡茶-2022-11-5 10:03:25</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-老貓再世_-2022-11-3 17:29:55</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-好人改名好好玩-2022-11-3 02:13:22</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-蓋世寶掉老母-2022-11-2 21:07:03</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-鄧奕謙-2022-11-1 22:56:45</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-賤螂礙交-2022-11-1 19:52:48</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-揭麼滋-2022-10-28 14:38:45</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-唔知你點呢-2022-10-27 18:23:34</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-牧師-2022-10-20 07:56:13</t>
-  </si>
-  <si>
-    <t>LI-20230110-232042066087-胃仔-2022-10-11 19:52:01</t>
-  </si>
-  <si>
-    <t>LI-20230110-232907058447-囝細老婆嫩-2022-12-7 22:45:04</t>
-  </si>
-  <si>
-    <t>LI-20230110-232907058447-神宮寺-2022-12-6 21:04:25</t>
-  </si>
-  <si>
-    <t>LI-20230110-232907058447-納米屌洗衣液-2022-10-11 11:59:24</t>
-  </si>
-  <si>
-    <t>LI-20230110-233246137217-格林斯潘-2023-1-5 22:19:37</t>
-  </si>
-  <si>
-    <t>LI-20230110-233246137217-馬里蘭樂園田泰安-2022-12-29 20:08:21</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:08</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:11</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:14</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:16</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:21</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:23</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:25</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:30</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:34</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:36</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:39</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:21:43</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:07</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:10</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:16</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:19</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:21</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:24</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:28</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:30</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:33</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:37</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:39</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:42</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:44</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:47</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:49</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:51</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:22:54</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:23:03</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:23:06</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:23:09</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:23:12</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:23:14</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:23:56</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:24:01</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:24:03</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:24:06</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:24:09</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:26:01</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:26:54</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:04</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:07</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:09</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:29</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:32</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:35</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:37</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:40</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:42</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:45</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:47</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:27:59</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:02</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:05</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:07</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:09</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:12</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:17</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:19</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:22</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:34</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:37</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:41</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:45</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:48</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:28:56</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:29:04</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:29:33</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:32:20</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:32:42</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:32:57</t>
-  </si>
-  <si>
-    <t>2023-01-10 23:32:58</t>
-  </si>
-  <si>
-    <t>2 日前</t>
+    <t>LI-20230111-121311390935</t>
+  </si>
+  <si>
+    <t>LI-20230111-122035944677</t>
+  </si>
+  <si>
+    <t>LI-20230111-122424919176</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-瀧野由美仔-2023-1-5 22:38:13</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-格林斯潘-2023-1-5 22:19:37</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-只嫁紀律部隊-2023-1-5 14:48:32</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-3noirvexa老師-2023-1-5 12:27:48</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-王頌茵-2023-1-3 05:46:42</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-東升西降@呂布-2023-1-2 14:57:27</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-馬里蘭樂園田泰安-2022-12-29 20:08:21</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-能大SU主席-2022-12-23 16:21:01</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-須賀悠衣-2022-12-17 15:41:59</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-保衛警犬運動-2022-12-12 23:51:17</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-點點點-2022-12-12 15:07:01</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-GME散戶（暴發）-2022-12-9 09:37:13</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-茉莉花園-2022-12-8 22:55:23</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-一蓑煙雨-2022-12-8 22:23:41</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-習慣咗就冇事-2022-12-8 22:03:18</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-芝麻仁冇蘑菇-2022-12-8 18:40:32</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-笑聲笑聲冚家拎-2022-12-8 13:22:09</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-爆炸-2022-12-8 12:26:50</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-須賀悠衣-2022-12-8 11:25:28</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-蓋世寶掉老母-2022-12-8 08:57:59</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-有村架純bb豬-2022-12-8 08:32:58</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-想點姐你打我牙笨-2022-12-8 06:43:17</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-毒菇天下-2022-12-7 23:50:26</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-藍色幽默-2022-12-7 23:39:23</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-一蓑煙雨-2022-12-7 23:19:28</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-天狼星A-2022-12-7 23:11:55</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-鹿特丹斯巴光年-2022-12-7 22:47:10</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-蓋世寶掉老母-2022-12-7 22:41:24</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-有冇人打波-2022-12-7 21:51:32</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-唔好搞我喇-2022-12-7 21:02:32</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-夢見-2022-12-7 19:32:33</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-安社長-2022-12-7 17:23:34</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-有妖氣-2022-12-7 15:12:21</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-科興揸弗人-2022-12-7 14:52:32</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-拉馬師潘頓-2022-12-7 14:17:20</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-數據難民-2022-12-7 13:40:57</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-異國喬-2022-12-6 23:09:28</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-阿李蝦蝦-2022-12-6 22:22:40</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-milet老公仔-2022-12-6 19:05:35</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-BenC世一！！-2022-12-6 18:59:42</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-10676呂布(PTSD)-2022-12-5 20:14:00</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-漢語字庫-2022-12-4 12:47:53</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-武漢居民-2022-12-2 22:53:02</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-仁賤聖敢油麥菜-2022-12-2 22:53:02</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-是但啦個名-2022-12-2 00:56:31</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-巴黎魚-2022-11-24 09:13:03</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-滕禁肛-2022-11-21 21:27:58</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-小鳥篤魚旦-2022-11-17 16:39:25</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-瀟灑不J-2022-11-14 11:29:30</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-蓋世寶掉老母-2022-11-8 11:54:04</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-冷泡茶-2022-11-5 10:03:25</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-老貓再世_-2022-11-3 17:29:55</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-好人改名好好玩-2022-11-3 02:13:22</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-蓋世寶掉老母-2022-11-2 21:07:03</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-鄧奕謙-2022-11-1 22:56:45</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-賤螂礙交-2022-11-1 19:52:48</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-揭麼滋-2022-10-28 14:38:45</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-唔知你點呢-2022-10-27 18:23:34</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-牧師-2022-10-20 07:56:13</t>
+  </si>
+  <si>
+    <t>LI-20230111-121311390935-胃仔-2022-10-11 19:52:01</t>
+  </si>
+  <si>
+    <t>LI-20230111-122035944677-囝細老婆嫩-2022-12-7 22:45:04</t>
+  </si>
+  <si>
+    <t>LI-20230111-122035944677-神宮寺-2022-12-6 21:04:25</t>
+  </si>
+  <si>
+    <t>LI-20230111-122035944677-納米屌洗衣液-2022-10-11 11:59:24</t>
+  </si>
+  <si>
+    <t>LI-20230111-122424919176-格林斯潘-2023-1-5 22:19:37</t>
+  </si>
+  <si>
+    <t>LI-20230111-122424919176-馬里蘭樂園田泰安-2022-12-29 20:08:21</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:13:37</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:13:40</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:13:42</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:13:45</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:13:49</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:13:52</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:13:54</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:13:59</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:14:02</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:14:05</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:14:09</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:14:33</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:14:36</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:14:41</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:14:43</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:14:46</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:14:51</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:14:53</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:14:56</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:15:00</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:15:03</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:15:06</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:15:09</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:15:11</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:15:14</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:15:17</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:15:25</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:15:28</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:15:30</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:15:34</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:16:15</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:16:20</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:16:22</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:16:25</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:16:28</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:18:25</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:18:37</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:18:39</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:18:42</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:01</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:05</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:08</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:10</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:14</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:16</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:19</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:31</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:34</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:37</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:40</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:43</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:48</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:51</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:19:54</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:20:06</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:20:09</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:20:14</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:20:17</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:20:25</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:20:32</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:21:01</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:23:56</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:24:20</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:24:36</t>
+  </si>
+  <si>
+    <t>2023-01-11 12:24:38</t>
+  </si>
+  <si>
+    <t>3 日前</t>
+  </si>
+  <si>
+    <t>5 日前</t>
+  </si>
+  <si>
+    <t>1 小時前</t>
   </si>
   <si>
     <t>4 日前</t>
   </si>
   <si>
-    <t>5 日前</t>
-  </si>
-  <si>
     <t>8 日前</t>
   </si>
   <si>
-    <t>11 日前</t>
-  </si>
-  <si>
-    <t>17 日前</t>
+    <t>12 日前</t>
+  </si>
+  <si>
+    <t>18 日前</t>
   </si>
   <si>
     <t>24 日前</t>
   </si>
   <si>
-    <t>28 日前</t>
-  </si>
-  <si>
     <t>29 日前</t>
   </si>
   <si>
@@ -493,16 +469,13 @@
     <t>2 個月前</t>
   </si>
   <si>
-    <t>12 日前</t>
-  </si>
-  <si>
     <t>2023-1-6 15:24:17</t>
   </si>
   <si>
     <t>2023-1-5 23:33:26</t>
   </si>
   <si>
-    <t>2023-1-6 15:19:36</t>
+    <t>2023-1-11 11:00:46</t>
   </si>
   <si>
     <t>2023-1-5 15:02:15</t>
@@ -623,9 +596,6 @@
   </si>
   <si>
     <t>2022-12-8 19:44:58</t>
-  </si>
-  <si>
-    <t>2022-12-5 18:27:17</t>
   </si>
   <si>
     <t>2022-12-2 01:00:53</t>
@@ -1040,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1077,10 +1047,10 @@
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1097,10 +1067,10 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1117,10 +1087,10 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1137,10 +1107,10 @@
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1157,10 +1127,10 @@
         <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1177,10 +1147,10 @@
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1197,10 +1167,10 @@
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1217,10 +1187,10 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1231,19 +1201,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1251,16 +1221,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1271,19 +1241,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1291,19 +1261,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1311,19 +1281,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1331,19 +1301,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1351,19 +1321,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1371,16 +1341,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1391,19 +1361,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1411,16 +1381,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1431,19 +1401,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1451,19 +1421,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1471,16 +1441,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1491,19 +1461,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1511,16 +1481,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1531,16 +1501,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1551,16 +1521,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1571,16 +1541,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1591,19 +1561,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1611,16 +1581,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1631,16 +1601,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1651,19 +1621,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1671,19 +1641,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1691,16 +1661,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1711,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1731,16 +1701,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1751,19 +1721,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F36">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1771,19 +1741,19 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1791,16 +1761,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1811,16 +1781,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1831,16 +1801,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1851,19 +1821,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F41">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1871,19 +1841,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F42">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1891,16 +1861,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1911,16 +1881,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1931,16 +1901,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1951,19 +1921,19 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1971,16 +1941,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1991,19 +1961,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2011,16 +1981,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2031,16 +2001,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
         <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2051,16 +2021,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2071,16 +2041,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>124</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2091,19 +2061,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2111,19 +2081,19 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>126</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2131,16 +2101,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
         <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2151,19 +2121,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2171,16 +2141,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
         <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2191,19 +2161,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
         <v>130</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2211,16 +2181,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
         <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E59" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2231,19 +2201,19 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2251,36 +2221,36 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
         <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
         <v>134</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2288,241 +2258,81 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
         <v>135</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
         <v>136</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
         <v>137</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>138</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="F66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" t="s">
-        <v>217</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" t="s">
-        <v>158</v>
-      </c>
-      <c r="E68" t="s">
-        <v>218</v>
-      </c>
-      <c r="F68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" t="s">
-        <v>157</v>
-      </c>
-      <c r="E69" t="s">
-        <v>219</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" t="s">
-        <v>157</v>
-      </c>
-      <c r="E70" t="s">
-        <v>220</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" t="s">
-        <v>221</v>
-      </c>
-      <c r="F71">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" t="s">
-        <v>158</v>
-      </c>
-      <c r="E72" t="s">
-        <v>222</v>
-      </c>
-      <c r="F72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" t="s">
-        <v>161</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" t="s">
-        <v>166</v>
-      </c>
-      <c r="F74">
         <v>1</v>
       </c>
     </row>
